--- a/BackTest/2019-11-20 BackTest FCT.xlsx
+++ b/BackTest/2019-11-20 BackTest FCT.xlsx
@@ -451,17 +451,13 @@
         <v>115.5</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>116</v>
-      </c>
-      <c r="K2" t="n">
-        <v>116</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>116</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>115</v>
-      </c>
-      <c r="K3" t="n">
-        <v>116</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>116</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>115</v>
-      </c>
-      <c r="K4" t="n">
-        <v>116</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>115.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>115</v>
-      </c>
-      <c r="K5" t="n">
-        <v>116</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>114.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>115</v>
-      </c>
-      <c r="K6" t="n">
-        <v>116</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>114.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>115</v>
-      </c>
-      <c r="K7" t="n">
-        <v>116</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>114.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>115</v>
-      </c>
-      <c r="K8" t="n">
-        <v>116</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>114.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>114</v>
-      </c>
-      <c r="K9" t="n">
-        <v>116</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>114.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>114</v>
-      </c>
-      <c r="K10" t="n">
-        <v>116</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>114.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>115</v>
-      </c>
-      <c r="K11" t="n">
-        <v>116</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>115</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>115</v>
-      </c>
-      <c r="K12" t="n">
-        <v>116</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>115.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>116</v>
-      </c>
-      <c r="K13" t="n">
-        <v>116</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>116</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>116</v>
-      </c>
-      <c r="K14" t="n">
-        <v>116</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +906,14 @@
         <v>116.5</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>117</v>
-      </c>
-      <c r="K15" t="n">
-        <v>116</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1049,22 +941,14 @@
         <v>117.5</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>118</v>
-      </c>
-      <c r="K16" t="n">
-        <v>116</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1092,22 +976,14 @@
         <v>117.5</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>118</v>
-      </c>
-      <c r="K17" t="n">
-        <v>116</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1141,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>116</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1182,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>116</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1223,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>116</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1264,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>116</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1305,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>116</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1346,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>116</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1387,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>116</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1428,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>116</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1469,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>116</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1510,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>116</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1548,19 +1364,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>116</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>1.012241379310345</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1589,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -2146,17 +1956,13 @@
         <v>115.5</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>115</v>
-      </c>
-      <c r="K45" t="n">
-        <v>115</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
@@ -2185,22 +1991,14 @@
         <v>115</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>115</v>
-      </c>
-      <c r="K46" t="n">
-        <v>115</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2228,22 +2026,14 @@
         <v>115.5</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>116</v>
-      </c>
-      <c r="K47" t="n">
-        <v>115</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2271,17 +2061,13 @@
         <v>116</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>116</v>
-      </c>
-      <c r="K48" t="n">
-        <v>116</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
@@ -2310,22 +2096,14 @@
         <v>115.5</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>115</v>
-      </c>
-      <c r="K49" t="n">
-        <v>116</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2353,22 +2131,14 @@
         <v>115.5</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>116</v>
-      </c>
-      <c r="K50" t="n">
-        <v>116</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2396,17 +2166,13 @@
         <v>116.5</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>117</v>
-      </c>
-      <c r="K51" t="n">
-        <v>117</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
@@ -2435,22 +2201,14 @@
         <v>117</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>117</v>
-      </c>
-      <c r="K52" t="n">
-        <v>117</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2484,342 +2242,294 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>117</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>117</v>
+      </c>
+      <c r="C54" t="n">
+        <v>116</v>
+      </c>
+      <c r="D54" t="n">
+        <v>117</v>
+      </c>
+      <c r="E54" t="n">
+        <v>116</v>
+      </c>
+      <c r="F54" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="G54" t="n">
+        <v>116</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>117</v>
+      </c>
+      <c r="C55" t="n">
+        <v>117</v>
+      </c>
+      <c r="D55" t="n">
+        <v>117</v>
+      </c>
+      <c r="E55" t="n">
+        <v>117</v>
+      </c>
+      <c r="F55" t="n">
+        <v>5</v>
+      </c>
+      <c r="G55" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>116</v>
+      </c>
+      <c r="C56" t="n">
+        <v>116</v>
+      </c>
+      <c r="D56" t="n">
+        <v>116</v>
+      </c>
+      <c r="E56" t="n">
+        <v>116</v>
+      </c>
+      <c r="F56" t="n">
+        <v>13.365</v>
+      </c>
+      <c r="G56" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>117</v>
+      </c>
+      <c r="C57" t="n">
+        <v>117</v>
+      </c>
+      <c r="D57" t="n">
+        <v>117</v>
+      </c>
+      <c r="E57" t="n">
+        <v>117</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5</v>
+      </c>
+      <c r="G57" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>116</v>
+      </c>
+      <c r="C58" t="n">
+        <v>116</v>
+      </c>
+      <c r="D58" t="n">
+        <v>116</v>
+      </c>
+      <c r="E58" t="n">
+        <v>116</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G58" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>116</v>
+      </c>
+      <c r="C59" t="n">
+        <v>116</v>
+      </c>
+      <c r="D59" t="n">
+        <v>116</v>
+      </c>
+      <c r="E59" t="n">
+        <v>116</v>
+      </c>
+      <c r="F59" t="n">
+        <v>90</v>
+      </c>
+      <c r="G59" t="n">
+        <v>116</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>117</v>
+      </c>
+      <c r="C60" t="n">
+        <v>117</v>
+      </c>
+      <c r="D60" t="n">
+        <v>117</v>
+      </c>
+      <c r="E60" t="n">
+        <v>116</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1555.1675</v>
+      </c>
+      <c r="G60" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>116</v>
+      </c>
+      <c r="C61" t="n">
+        <v>117</v>
+      </c>
+      <c r="D61" t="n">
+        <v>117</v>
+      </c>
+      <c r="E61" t="n">
+        <v>116</v>
+      </c>
+      <c r="F61" t="n">
+        <v>60.0975</v>
+      </c>
+      <c r="G61" t="n">
+        <v>117</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>117</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>117</v>
-      </c>
-      <c r="C54" t="n">
-        <v>116</v>
-      </c>
-      <c r="D54" t="n">
-        <v>117</v>
-      </c>
-      <c r="E54" t="n">
-        <v>116</v>
-      </c>
-      <c r="F54" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="G54" t="n">
-        <v>116</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>117</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>117</v>
-      </c>
-      <c r="C55" t="n">
-        <v>117</v>
-      </c>
-      <c r="D55" t="n">
-        <v>117</v>
-      </c>
-      <c r="E55" t="n">
-        <v>117</v>
-      </c>
-      <c r="F55" t="n">
-        <v>5</v>
-      </c>
-      <c r="G55" t="n">
-        <v>116.5</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>117</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>116</v>
-      </c>
-      <c r="C56" t="n">
-        <v>116</v>
-      </c>
-      <c r="D56" t="n">
-        <v>116</v>
-      </c>
-      <c r="E56" t="n">
-        <v>116</v>
-      </c>
-      <c r="F56" t="n">
-        <v>13.365</v>
-      </c>
-      <c r="G56" t="n">
-        <v>116.5</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>117</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>117</v>
-      </c>
-      <c r="C57" t="n">
-        <v>117</v>
-      </c>
-      <c r="D57" t="n">
-        <v>117</v>
-      </c>
-      <c r="E57" t="n">
-        <v>117</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5</v>
-      </c>
-      <c r="G57" t="n">
-        <v>116.5</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>117</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>116</v>
-      </c>
-      <c r="C58" t="n">
-        <v>116</v>
-      </c>
-      <c r="D58" t="n">
-        <v>116</v>
-      </c>
-      <c r="E58" t="n">
-        <v>116</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G58" t="n">
-        <v>116.5</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>117</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>116</v>
-      </c>
-      <c r="C59" t="n">
-        <v>116</v>
-      </c>
-      <c r="D59" t="n">
-        <v>116</v>
-      </c>
-      <c r="E59" t="n">
-        <v>116</v>
-      </c>
-      <c r="F59" t="n">
-        <v>90</v>
-      </c>
-      <c r="G59" t="n">
-        <v>116</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>117</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>117</v>
-      </c>
-      <c r="C60" t="n">
-        <v>117</v>
-      </c>
-      <c r="D60" t="n">
-        <v>117</v>
-      </c>
-      <c r="E60" t="n">
-        <v>116</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1555.1675</v>
-      </c>
-      <c r="G60" t="n">
-        <v>116.5</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>117</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>116</v>
-      </c>
-      <c r="C61" t="n">
-        <v>117</v>
-      </c>
-      <c r="D61" t="n">
-        <v>117</v>
-      </c>
-      <c r="E61" t="n">
-        <v>116</v>
-      </c>
-      <c r="F61" t="n">
-        <v>60.0975</v>
-      </c>
-      <c r="G61" t="n">
-        <v>117</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>117</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2847,15 +2557,15 @@
         <v>116.5</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>117</v>
-      </c>
+      <c r="J62" t="n">
+        <v>117</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2888,15 +2598,15 @@
         <v>116.5</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>117</v>
-      </c>
+      <c r="J63" t="n">
+        <v>116</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2929,15 +2639,15 @@
         <v>116.5</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>117</v>
-      </c>
+      <c r="J64" t="n">
+        <v>117</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2970,15 +2680,15 @@
         <v>116.5</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>117</v>
-      </c>
+      <c r="J65" t="n">
+        <v>116</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3011,15 +2721,15 @@
         <v>116.5</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>117</v>
-      </c>
+      <c r="J66" t="n">
+        <v>117</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3052,15 +2762,15 @@
         <v>116.5</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>117</v>
-      </c>
+      <c r="J67" t="n">
+        <v>116</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3093,15 +2803,15 @@
         <v>117</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>117</v>
-      </c>
+      <c r="J68" t="n">
+        <v>117</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3134,15 +2844,15 @@
         <v>117</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>117</v>
-      </c>
+      <c r="J69" t="n">
+        <v>117</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3175,15 +2885,15 @@
         <v>117.5</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>117</v>
-      </c>
+      <c r="J70" t="n">
+        <v>117</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3216,15 +2926,15 @@
         <v>117</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>117</v>
-      </c>
+      <c r="J71" t="n">
+        <v>118</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3263,9 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>117</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3304,9 +3012,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>117</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3345,9 +3051,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>117</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3386,9 +3090,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>117</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3427,9 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>117</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3468,9 +3168,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>117</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3509,9 +3207,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>117</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3550,9 +3246,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>117</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3591,9 +3285,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>117</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3632,9 +3324,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>117</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3673,9 +3363,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>117</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3714,9 +3402,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>117</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3755,9 +3441,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>117</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3796,9 +3480,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>117</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3837,9 +3519,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>117</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3878,9 +3558,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>117</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3919,9 +3597,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>117</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3954,17 +3630,13 @@
         <v>115.5</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>116</v>
-      </c>
-      <c r="K89" t="n">
-        <v>117</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4003,9 +3675,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>117</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4038,17 +3708,13 @@
         <v>115.5</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>116</v>
-      </c>
-      <c r="K91" t="n">
-        <v>117</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4087,9 +3753,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>117</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4122,17 +3786,13 @@
         <v>115.5</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>117</v>
-      </c>
-      <c r="K93" t="n">
-        <v>117</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4171,9 +3831,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>117</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4206,17 +3864,13 @@
         <v>117</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>117</v>
-      </c>
-      <c r="K95" t="n">
-        <v>117</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4255,9 +3909,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>117</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4296,9 +3948,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>117</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4337,9 +3987,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>117</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4378,9 +4026,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>117</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4419,9 +4065,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>117</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4460,9 +4104,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>117</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4501,9 +4143,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>117</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4542,9 +4182,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>117</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4583,9 +4221,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>117</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4624,9 +4260,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>117</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4665,9 +4299,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>117</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4706,9 +4338,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>117</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4747,9 +4377,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>117</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4788,9 +4416,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>117</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4829,9 +4455,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>117</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4870,9 +4494,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>117</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4911,9 +4533,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>117</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4952,17 +4572,13 @@
         <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>117</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1.037735042735043</v>
-      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4990,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -5025,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -5060,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -5235,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -12092,13 +11708,17 @@
         <v>118</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>117</v>
+      </c>
+      <c r="K317" t="n">
+        <v>117</v>
+      </c>
       <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
@@ -12127,14 +11747,22 @@
         <v>119</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>119</v>
+      </c>
+      <c r="K318" t="n">
+        <v>117</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12162,14 +11790,22 @@
         <v>119.5</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>119</v>
+      </c>
+      <c r="K319" t="n">
+        <v>117</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12197,14 +11833,22 @@
         <v>120.5</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>120</v>
+      </c>
+      <c r="K320" t="n">
+        <v>117</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12232,14 +11876,22 @@
         <v>120.5</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>121</v>
+      </c>
+      <c r="K321" t="n">
+        <v>117</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12267,14 +11919,22 @@
         <v>121</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>120</v>
+      </c>
+      <c r="K322" t="n">
+        <v>117</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12302,14 +11962,22 @@
         <v>122</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>122</v>
+      </c>
+      <c r="K323" t="n">
+        <v>117</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12343,8 +12011,14 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>117</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12378,8 +12052,14 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>117</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12413,8 +12093,14 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>117</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12448,8 +12134,14 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>117</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12483,8 +12175,14 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>117</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12518,8 +12216,14 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>117</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12553,8 +12257,14 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>117</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12588,8 +12298,14 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>117</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12623,8 +12339,14 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>117</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12658,8 +12380,14 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>117</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12693,8 +12421,14 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>117</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12728,8 +12462,14 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>117</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12763,8 +12503,14 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>117</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12798,8 +12544,14 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>117</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12833,8 +12585,14 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>117</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12868,8 +12626,14 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>117</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12903,8 +12667,14 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>117</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12938,8 +12708,14 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>117</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12973,8 +12749,14 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>117</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13008,8 +12790,14 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>117</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13043,8 +12831,14 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>117</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13078,8 +12872,14 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>117</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13113,8 +12913,14 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>117</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13148,8 +12954,14 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>117</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13183,8 +12995,14 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>117</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13218,8 +13036,14 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>117</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13253,8 +13077,14 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>117</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13288,8 +13118,14 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>117</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13323,8 +13159,14 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>117</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13358,8 +13200,14 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>117</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13393,8 +13241,14 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>117</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13428,8 +13282,14 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>117</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13463,8 +13323,14 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>117</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13498,8 +13364,14 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>117</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13533,8 +13405,14 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>117</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13568,8 +13446,14 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>117</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13603,8 +13487,14 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>117</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13638,8 +13528,14 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>117</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13673,8 +13569,14 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>117</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13708,8 +13610,14 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>117</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13743,8 +13651,14 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>117</v>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13778,8 +13692,14 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>117</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13813,8 +13733,14 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>117</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13848,8 +13774,14 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>117</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13883,8 +13815,14 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>117</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13918,8 +13856,14 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>117</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13953,8 +13897,14 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>117</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13988,8 +13938,14 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>117</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14023,8 +13979,14 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>117</v>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14058,8 +14020,14 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>117</v>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14093,8 +14061,14 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>117</v>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14128,8 +14102,14 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>117</v>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14163,8 +14143,14 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>117</v>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14198,8 +14184,14 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>117</v>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14233,8 +14225,14 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>117</v>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14268,8 +14266,14 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>117</v>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14303,8 +14307,14 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>117</v>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14338,8 +14348,14 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>117</v>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14373,8 +14389,14 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>117</v>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14408,8 +14430,14 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>117</v>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14443,8 +14471,14 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>117</v>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14478,8 +14512,14 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>117</v>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14513,8 +14553,14 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>117</v>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14548,8 +14594,14 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>117</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14583,8 +14635,14 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>117</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14618,8 +14676,14 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>117</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14653,8 +14717,14 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>117</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14688,8 +14758,14 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>117</v>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14723,8 +14799,14 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>117</v>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14758,8 +14840,14 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>117</v>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14793,8 +14881,14 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>117</v>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14828,8 +14922,14 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>117</v>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14863,8 +14963,14 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>117</v>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14898,8 +15004,14 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>117</v>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14933,8 +15045,14 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>117</v>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14968,8 +15086,14 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>117</v>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-20 BackTest FCT.xlsx
+++ b/BackTest/2019-11-20 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-28722.01701061946</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-28722.01701061946</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>113</v>
-      </c>
-      <c r="J3" t="n">
-        <v>113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -524,14 +520,8 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>113</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -563,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>113</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -731,7 +715,7 @@
         <v>-33891.66981061945</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>111</v>
@@ -768,7 +752,7 @@
         <v>-33886.66981061945</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>112</v>
@@ -809,7 +793,7 @@
         <v>-33886.66981061945</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>113</v>
@@ -850,7 +834,7 @@
         <v>-33886.66981061945</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>113</v>
@@ -887,7 +871,7 @@
         <v>-33886.66981061945</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>113</v>
@@ -928,7 +912,7 @@
         <v>-35219.14151061945</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>113</v>
@@ -969,7 +953,7 @@
         <v>-35209.14151061945</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>112</v>
@@ -1006,7 +990,7 @@
         <v>-35209.14151061945</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>113</v>
@@ -1047,9 +1031,11 @@
         <v>-35209.14151061945</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>113</v>
+      </c>
       <c r="J18" t="n">
         <v>112</v>
       </c>
@@ -1086,10 +1072,14 @@
         <v>-35209.14151061945</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>113</v>
+      </c>
+      <c r="J19" t="n">
+        <v>113</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1122,8 +1112,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>113</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1155,8 +1151,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>113</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1251,14 +1253,10 @@
         <v>-35204.14151061945</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>114</v>
-      </c>
-      <c r="J24" t="n">
-        <v>114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1288,19 +1286,11 @@
         <v>-35204.14151061945</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>114</v>
-      </c>
-      <c r="J25" t="n">
-        <v>114</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1332,14 +1322,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>114</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1371,14 +1355,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>114</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1410,14 +1388,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>114</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1449,14 +1421,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>114</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1488,14 +1454,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>114</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1527,14 +1487,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>114</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1566,14 +1520,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>114</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1605,14 +1553,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>114</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1644,14 +1586,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>114</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1683,14 +1619,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>114</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1722,14 +1652,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>114</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1761,14 +1685,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>114</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1800,14 +1718,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>114</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1839,14 +1751,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>114</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1878,14 +1784,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>114</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1917,14 +1817,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>114</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1956,14 +1850,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>114</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1995,14 +1883,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>114</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2034,14 +1916,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>114</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2073,14 +1949,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>114</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2112,14 +1982,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>114</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2151,14 +2015,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>114</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2190,14 +2048,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>114</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2229,14 +2081,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>114</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2268,14 +2114,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>114</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2307,14 +2147,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>114</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2346,14 +2180,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>114</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2385,14 +2213,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>114</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2424,14 +2246,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>114</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2463,14 +2279,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>114</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2502,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>114</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2541,14 +2345,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>114</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2580,14 +2378,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>114</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2619,14 +2411,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>114</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2658,14 +2444,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>114</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2697,14 +2477,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>114</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2736,14 +2510,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>114</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2775,14 +2543,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>114</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2814,14 +2576,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>114</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2853,14 +2609,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>114</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2892,14 +2642,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>114</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2931,14 +2675,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>114</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2970,14 +2708,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>114</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3009,14 +2741,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>114</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3048,14 +2774,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>114</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3087,14 +2807,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>114</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3126,14 +2840,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>114</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3165,14 +2873,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>114</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3204,14 +2906,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>114</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3243,14 +2939,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>114</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3282,14 +2972,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>114</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3321,14 +3005,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>114</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3360,14 +3038,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>114</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3399,14 +3071,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>114</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3438,14 +3104,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>114</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3477,14 +3137,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>114</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3516,14 +3170,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>114</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3555,14 +3203,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>114</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3594,14 +3236,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>114</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3633,14 +3269,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>114</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3672,14 +3302,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>114</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3711,14 +3335,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>114</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3750,14 +3368,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>114</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3789,14 +3401,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>114</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3828,14 +3434,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>114</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3867,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>114</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3906,14 +3500,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>114</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3945,14 +3533,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>114</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3984,14 +3566,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>114</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4023,14 +3599,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>114</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4062,14 +3632,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>114</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4101,14 +3665,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>114</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4140,14 +3698,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>114</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4179,14 +3731,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>114</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4218,14 +3764,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>114</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4257,14 +3797,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>114</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4296,14 +3830,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>114</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4335,14 +3863,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>114</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4374,14 +3896,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>114</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4413,14 +3929,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>114</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4452,14 +3962,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>114</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4491,14 +3995,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>114</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4530,14 +4028,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>114</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4569,14 +4061,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>114</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4608,14 +4094,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>114</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4647,14 +4127,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>114</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4686,14 +4160,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>114</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4725,14 +4193,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>114</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4764,14 +4226,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>114</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4803,14 +4259,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>114</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4842,14 +4292,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>114</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4881,14 +4325,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>114</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4920,14 +4358,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>114</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4959,14 +4391,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>114</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4998,14 +4424,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>114</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5037,14 +4457,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>114</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5076,14 +4490,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>114</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5115,14 +4523,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>114</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5154,14 +4556,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>114</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5193,14 +4589,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>114</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5232,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>114</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5271,14 +4655,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>114</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5310,14 +4688,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>114</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5349,14 +4721,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>114</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5388,14 +4754,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>114</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5427,14 +4787,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>114</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5466,14 +4820,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>114</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5505,14 +4853,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>114</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5544,14 +4886,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>114</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5583,14 +4919,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>114</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5622,14 +4952,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>114</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5661,14 +4985,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>114</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5700,14 +5018,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>114</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5739,14 +5051,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>114</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5778,14 +5084,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>114</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5817,14 +5117,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>114</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5856,14 +5150,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>114</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5895,14 +5183,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>114</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5934,14 +5216,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>114</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5973,14 +5249,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>114</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6012,14 +5282,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>114</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6051,14 +5315,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>114</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6090,14 +5348,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>114</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6129,14 +5381,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>114</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6168,14 +5414,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>114</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6207,14 +5447,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>114</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6246,14 +5480,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>114</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6285,14 +5513,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>114</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6324,14 +5546,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>114</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6363,14 +5579,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>114</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6402,14 +5612,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>114</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6441,14 +5645,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>114</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6480,14 +5678,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>114</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6519,14 +5711,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>114</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6558,14 +5744,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>114</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6597,14 +5777,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>114</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6636,14 +5810,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>114</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6675,14 +5843,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>114</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6714,14 +5876,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>114</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6753,14 +5909,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>114</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6792,14 +5942,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>114</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6831,14 +5975,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>114</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6870,14 +6008,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>114</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6906,23 +6038,15 @@
         <v>-172933.552079585</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>114</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
-        <v>1.073947368421053</v>
-      </c>
-      <c r="M169" t="n">
-        <v>1.036363636363636</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6947,7 +6071,7 @@
         <v>-127788.489879585</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6980,7 +6104,7 @@
         <v>-137794.162679585</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7013,7 +6137,7 @@
         <v>-139354.162579585</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -7046,7 +6170,7 @@
         <v>-135992.656079585</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -7211,7 +6335,7 @@
         <v>-81500.79897958497</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7244,7 +6368,7 @@
         <v>-66985.35047958497</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7277,7 +6401,7 @@
         <v>-87999.85687958497</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7310,7 +6434,7 @@
         <v>-87999.85687958497</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7343,7 +6467,7 @@
         <v>-87999.85687958497</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7376,7 +6500,7 @@
         <v>-94249.70137958498</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7409,7 +6533,7 @@
         <v>-77937.05657958498</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7442,7 +6566,7 @@
         <v>-28141.21997958498</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7574,7 +6698,7 @@
         <v>-49710.12617958498</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7673,7 +6797,7 @@
         <v>-58958.27577958498</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7706,7 +6830,7 @@
         <v>-46338.73847958498</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7739,7 +6863,7 @@
         <v>-51183.15497958498</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7772,7 +6896,7 @@
         <v>-61091.66807958498</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7838,7 +6962,7 @@
         <v>-55943.24437958498</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7871,7 +6995,7 @@
         <v>-54381.43197958498</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -8003,7 +7127,7 @@
         <v>-14122.24837958498</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8102,7 +7226,7 @@
         <v>-17477.67887958498</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8729,7 +7853,7 @@
         <v>-64407.69077958498</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8795,7 +7919,7 @@
         <v>-64407.69077958498</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8828,7 +7952,7 @@
         <v>-64407.69077958498</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8861,7 +7985,7 @@
         <v>-64407.69077958498</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8894,7 +8018,7 @@
         <v>-61776.09267958498</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8927,7 +8051,7 @@
         <v>-66757.12911829466</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8960,7 +8084,7 @@
         <v>-59911.24095700434</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8993,7 +8117,7 @@
         <v>-59911.24095700434</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9026,7 +8150,7 @@
         <v>-59911.24095700434</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9059,7 +8183,7 @@
         <v>-38692.19155700433</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9092,7 +8216,7 @@
         <v>4893.375042995664</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9125,7 +8249,7 @@
         <v>-8694.012957004337</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9158,7 +8282,7 @@
         <v>-8694.012957004337</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9191,7 +8315,7 @@
         <v>-8694.012957004337</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9719,7 +8843,7 @@
         <v>-78544.10175700435</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9752,7 +8876,7 @@
         <v>-78544.10175700435</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9785,7 +8909,7 @@
         <v>-63434.91095700435</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9818,7 +8942,7 @@
         <v>-63439.09285700435</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9851,7 +8975,7 @@
         <v>-63434.09285700435</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9884,7 +9008,7 @@
         <v>-103243.7482570044</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9917,7 +9041,7 @@
         <v>-97275.69225700437</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9950,7 +9074,7 @@
         <v>-97275.69225700437</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9983,7 +9107,7 @@
         <v>-123425.0752570044</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10016,7 +9140,7 @@
         <v>-123425.0752570044</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10049,7 +9173,7 @@
         <v>-114622.2597570044</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10082,7 +9206,7 @@
         <v>-114880.8755570044</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10445,7 +9569,7 @@
         <v>-236363.2558570044</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10478,7 +9602,7 @@
         <v>-239054.2768570044</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10511,7 +9635,7 @@
         <v>-233755.8647570044</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10544,7 +9668,7 @@
         <v>-233755.8647570044</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10610,7 +9734,7 @@
         <v>-234883.6997570044</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10643,7 +9767,7 @@
         <v>-234883.6997570044</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10676,7 +9800,7 @@
         <v>-234883.6997570044</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10709,7 +9833,7 @@
         <v>-235183.6997570044</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -16792,6 +15916,6 @@
       <c r="M468" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest FCT.xlsx
+++ b/BackTest/2019-11-20 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -752,11 +752,9 @@
         <v>-33886.66981061945</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>112</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>111</v>
       </c>
@@ -793,11 +791,9 @@
         <v>-33886.66981061945</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>111</v>
       </c>
@@ -834,14 +830,10 @@
         <v>-33886.66981061945</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>113</v>
-      </c>
-      <c r="J13" t="n">
-        <v>113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
@@ -871,19 +863,11 @@
         <v>-33886.66981061945</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>113</v>
-      </c>
-      <c r="J14" t="n">
-        <v>113</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -912,19 +896,11 @@
         <v>-35219.14151061945</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>113</v>
-      </c>
-      <c r="J15" t="n">
-        <v>113</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -953,14 +929,10 @@
         <v>-35209.14151061945</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>112</v>
-      </c>
-      <c r="J16" t="n">
-        <v>112</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
@@ -990,19 +962,11 @@
         <v>-35209.14151061945</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>113</v>
-      </c>
-      <c r="J17" t="n">
-        <v>112</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1031,19 +995,11 @@
         <v>-35209.14151061945</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>113</v>
-      </c>
-      <c r="J18" t="n">
-        <v>112</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1072,14 +1028,10 @@
         <v>-35209.14151061945</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>113</v>
-      </c>
-      <c r="J19" t="n">
-        <v>113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1112,14 +1064,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>113</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1151,14 +1097,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>113</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1814,7 +1754,7 @@
         <v>-81409.68551061946</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1847,7 +1787,7 @@
         <v>-81409.68551061946</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2078,7 +2018,7 @@
         <v>-111354.6855106195</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2474,7 +2414,7 @@
         <v>-138488.1701106195</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2969,7 +2909,7 @@
         <v>-131775.0699106194</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3002,7 +2942,7 @@
         <v>-131770.0699106194</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3035,7 +2975,7 @@
         <v>-131770.0699106194</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3068,7 +3008,7 @@
         <v>-131770.0699106194</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3101,7 +3041,7 @@
         <v>-124169.4961106194</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3134,7 +3074,7 @@
         <v>-124164.4961106194</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3167,7 +3107,7 @@
         <v>-135049.7883106194</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3200,7 +3140,7 @@
         <v>-198278.8439106194</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3233,7 +3173,7 @@
         <v>-126692.4222106194</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3266,7 +3206,7 @@
         <v>-126692.4222106194</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3299,7 +3239,7 @@
         <v>-201014.1369106194</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3332,7 +3272,7 @@
         <v>-201014.1369106194</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3365,7 +3305,7 @@
         <v>-201009.1369106194</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3398,7 +3338,7 @@
         <v>-201014.1369106194</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3431,7 +3371,7 @@
         <v>-211848.9123106195</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -4157,7 +4097,7 @@
         <v>-231020.1917106195</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -5972,7 +5912,7 @@
         <v>-165317.598279585</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6005,7 +5945,7 @@
         <v>-173335.992279585</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6038,7 +5978,7 @@
         <v>-172933.552079585</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6071,7 +6011,7 @@
         <v>-127788.489879585</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6104,7 +6044,7 @@
         <v>-137794.162679585</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6137,7 +6077,7 @@
         <v>-139354.162579585</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6170,7 +6110,7 @@
         <v>-135992.656079585</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6203,7 +6143,7 @@
         <v>-140944.391279585</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6236,7 +6176,7 @@
         <v>-83025.31937958498</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6269,7 +6209,7 @@
         <v>-6554.340479584978</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6302,7 +6242,7 @@
         <v>-81500.79897958497</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6764,7 +6704,7 @@
         <v>-75463.62047958498</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6797,7 +6737,7 @@
         <v>-58958.27577958498</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6830,7 +6770,7 @@
         <v>-46338.73847958498</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7061,7 +7001,7 @@
         <v>-58681.26567958498</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7094,7 +7034,7 @@
         <v>-34162.36647958498</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7160,7 +7100,7 @@
         <v>-17477.67887958498</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7259,7 +7199,7 @@
         <v>-17477.67887958498</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7919,7 +7859,7 @@
         <v>-64407.69077958498</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7952,7 +7892,7 @@
         <v>-64407.69077958498</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7985,7 +7925,7 @@
         <v>-64407.69077958498</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8018,7 +7958,7 @@
         <v>-61776.09267958498</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8051,7 +7991,7 @@
         <v>-66757.12911829466</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8084,7 +8024,7 @@
         <v>-59911.24095700434</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8117,7 +8057,7 @@
         <v>-59911.24095700434</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8150,7 +8090,7 @@
         <v>-59911.24095700434</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8183,7 +8123,7 @@
         <v>-38692.19155700433</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8216,7 +8156,7 @@
         <v>4893.375042995664</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8249,7 +8189,7 @@
         <v>-8694.012957004337</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8282,7 +8222,7 @@
         <v>-8694.012957004337</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8315,7 +8255,7 @@
         <v>-8694.012957004337</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8843,7 +8783,7 @@
         <v>-78544.10175700435</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8876,7 +8816,7 @@
         <v>-78544.10175700435</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8909,7 +8849,7 @@
         <v>-63434.91095700435</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8942,7 +8882,7 @@
         <v>-63439.09285700435</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8975,7 +8915,7 @@
         <v>-63434.09285700435</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9008,7 +8948,7 @@
         <v>-103243.7482570044</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9041,7 +8981,7 @@
         <v>-97275.69225700437</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9074,7 +9014,7 @@
         <v>-97275.69225700437</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9107,7 +9047,7 @@
         <v>-123425.0752570044</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9140,7 +9080,7 @@
         <v>-123425.0752570044</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9173,7 +9113,7 @@
         <v>-114622.2597570044</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9206,7 +9146,7 @@
         <v>-114880.8755570044</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9569,7 +9509,7 @@
         <v>-236363.2558570044</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9602,7 +9542,7 @@
         <v>-239054.2768570044</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9635,7 +9575,7 @@
         <v>-233755.8647570044</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9668,7 +9608,7 @@
         <v>-233755.8647570044</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9734,7 +9674,7 @@
         <v>-234883.6997570044</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9767,7 +9707,7 @@
         <v>-234883.6997570044</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9800,7 +9740,7 @@
         <v>-234883.6997570044</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9833,7 +9773,7 @@
         <v>-235183.6997570044</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11549,7 +11489,7 @@
         <v>-340349.2762570044</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11945,7 +11885,7 @@
         <v>-338655.4802570044</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11978,7 +11918,7 @@
         <v>-338648.7892570044</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12011,7 +11951,7 @@
         <v>-338648.7892570044</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12044,7 +11984,7 @@
         <v>-338707.7892570044</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12209,7 +12149,7 @@
         <v>-339668.5699570044</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12242,7 +12182,7 @@
         <v>-340144.6072570044</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12275,7 +12215,7 @@
         <v>-338334.7022570044</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12308,7 +12248,7 @@
         <v>-350939.7442570044</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12374,7 +12314,7 @@
         <v>-350944.7442570044</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12407,7 +12347,7 @@
         <v>-350944.7442570044</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12440,7 +12380,7 @@
         <v>-370081.5755570044</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12473,7 +12413,7 @@
         <v>-347508.2280570045</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12506,7 +12446,7 @@
         <v>-347508.2280570045</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12539,7 +12479,7 @@
         <v>-347804.8382570044</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12572,7 +12512,7 @@
         <v>-347804.8382570044</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12638,10 +12578,14 @@
         <v>-347804.8382570044</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>118</v>
+      </c>
+      <c r="J369" t="n">
+        <v>118</v>
+      </c>
       <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
@@ -12671,11 +12615,19 @@
         <v>-347804.8382570044</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>118</v>
+      </c>
+      <c r="J370" t="n">
+        <v>118</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12704,11 +12656,19 @@
         <v>-347804.8382570044</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>118</v>
+      </c>
+      <c r="J371" t="n">
+        <v>118</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12770,10 +12730,14 @@
         <v>-347799.8382570044</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>118</v>
+      </c>
+      <c r="J373" t="n">
+        <v>118</v>
+      </c>
       <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
@@ -12803,11 +12767,19 @@
         <v>-347804.2382570045</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>119</v>
+      </c>
+      <c r="J374" t="n">
+        <v>118</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12836,11 +12808,19 @@
         <v>-347804.2382570045</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>117</v>
+      </c>
+      <c r="J375" t="n">
+        <v>118</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12869,10 +12849,14 @@
         <v>-347799.2382570045</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>117</v>
+      </c>
+      <c r="J376" t="n">
+        <v>117</v>
+      </c>
       <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
@@ -12902,11 +12886,19 @@
         <v>-347799.2382570045</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>119</v>
+      </c>
+      <c r="J377" t="n">
+        <v>117</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12938,8 +12930,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>117</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13760,10 +13758,14 @@
         <v>-340869.1439570044</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>118</v>
+      </c>
+      <c r="J403" t="n">
+        <v>118</v>
+      </c>
       <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
@@ -13796,8 +13798,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>118</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13829,8 +13837,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>118</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14090,7 +14104,7 @@
         <v>-292578.5099570043</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14123,7 +14137,7 @@
         <v>-292578.5099570043</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14156,7 +14170,7 @@
         <v>-292578.5099570043</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15245,11 +15259,17 @@
         <v>-418005.2165570043</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>118</v>
+      </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15278,11 +15298,17 @@
         <v>-414666.4899570043</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>117</v>
+      </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15315,7 +15341,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15344,11 +15374,17 @@
         <v>-534666.4899570043</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>119</v>
+      </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15381,7 +15417,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15414,7 +15454,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15447,7 +15491,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15476,11 +15524,17 @@
         <v>-634450.4513570043</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>118</v>
+      </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15513,7 +15567,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15546,7 +15604,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15579,7 +15641,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15612,7 +15678,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15645,7 +15715,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15678,7 +15752,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15711,7 +15789,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15744,7 +15826,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15777,7 +15863,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15810,7 +15900,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15843,7 +15937,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15876,7 +15974,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15909,13 +16011,17 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
       <c r="M468" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest FCT.xlsx
+++ b/BackTest/2019-11-20 BackTest FCT.xlsx
@@ -451,7 +451,7 @@
         <v>-28722.01701061946</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-28722.01701061946</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>113</v>
+      </c>
+      <c r="J3" t="n">
+        <v>113</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-28722.01701061946</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>113</v>
+      </c>
+      <c r="J4" t="n">
+        <v>113</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-28722.01701061946</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>113</v>
+      </c>
+      <c r="J5" t="n">
+        <v>113</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>-48722.01701061946</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>113</v>
+      </c>
+      <c r="J6" t="n">
+        <v>113</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>-48717.01701061946</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>110</v>
+      </c>
+      <c r="J7" t="n">
+        <v>113</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>-48762.27171061945</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>113</v>
+      </c>
+      <c r="J8" t="n">
+        <v>113</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>-48762.27171061945</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>111</v>
+      </c>
+      <c r="J9" t="n">
+        <v>113</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -721,9 +773,13 @@
         <v>111</v>
       </c>
       <c r="J10" t="n">
-        <v>111</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>113</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,15 +808,17 @@
         <v>-33886.66981061945</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>112</v>
+      </c>
       <c r="J11" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -791,15 +849,17 @@
         <v>-33886.66981061945</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>113</v>
+      </c>
       <c r="J12" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -830,11 +890,19 @@
         <v>-33886.66981061945</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>113</v>
+      </c>
+      <c r="J13" t="n">
+        <v>113</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -863,11 +931,19 @@
         <v>-33886.66981061945</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>113</v>
+      </c>
+      <c r="J14" t="n">
+        <v>113</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -896,11 +972,19 @@
         <v>-35219.14151061945</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>113</v>
+      </c>
+      <c r="J15" t="n">
+        <v>113</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -929,11 +1013,19 @@
         <v>-35209.14151061945</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>112</v>
+      </c>
+      <c r="J16" t="n">
+        <v>113</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -962,11 +1054,19 @@
         <v>-35209.14151061945</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>113</v>
+      </c>
+      <c r="J17" t="n">
+        <v>113</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -995,11 +1095,19 @@
         <v>-35209.14151061945</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>113</v>
+      </c>
+      <c r="J18" t="n">
+        <v>113</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1028,11 +1136,19 @@
         <v>-35209.14151061945</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>113</v>
+      </c>
+      <c r="J19" t="n">
+        <v>113</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1061,11 +1177,19 @@
         <v>-35204.14151061945</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>113</v>
+      </c>
+      <c r="J20" t="n">
+        <v>113</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1094,11 +1218,19 @@
         <v>-35204.14151061945</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>114</v>
+      </c>
+      <c r="J21" t="n">
+        <v>113</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1130,8 +1262,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>113</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1163,8 +1301,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>113</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1196,8 +1340,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>113</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1229,8 +1379,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>113</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1262,8 +1418,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>113</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1295,8 +1457,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>113</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1328,8 +1496,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>113</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1361,8 +1535,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>113</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1394,8 +1574,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>113</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1427,8 +1613,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>113</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1460,8 +1652,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>113</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1493,8 +1691,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>113</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1526,8 +1730,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>113</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1559,8 +1769,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>113</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1592,8 +1808,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>113</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1625,8 +1847,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>113</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1658,8 +1886,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>113</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1691,8 +1925,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>113</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1724,8 +1964,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>113</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1754,11 +2000,17 @@
         <v>-81409.68551061946</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>113</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1787,11 +2039,17 @@
         <v>-81409.68551061946</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>113</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1823,8 +2081,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>113</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1856,8 +2120,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>113</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1889,8 +2159,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>113</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1922,8 +2198,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>113</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1955,8 +2237,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>113</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1988,8 +2276,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>113</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2018,11 +2312,17 @@
         <v>-111354.6855106195</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>113</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2054,8 +2354,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>113</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2087,8 +2393,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>113</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2120,8 +2432,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>113</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2153,8 +2471,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>113</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2186,8 +2510,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>113</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2219,8 +2549,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>113</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2252,8 +2588,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>113</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2285,8 +2627,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>113</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2318,8 +2666,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>113</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2351,8 +2705,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>113</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2384,8 +2744,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>113</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2414,11 +2780,17 @@
         <v>-138488.1701106195</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>113</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2450,8 +2822,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>113</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2483,8 +2861,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>113</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2516,8 +2900,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>113</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2549,8 +2939,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>113</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2582,8 +2978,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>113</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2615,8 +3017,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>113</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2648,8 +3056,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>113</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2681,8 +3095,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>113</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2714,8 +3134,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>113</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2747,8 +3173,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>113</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2780,8 +3212,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>113</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2813,8 +3251,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>113</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2846,8 +3290,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>113</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2879,8 +3329,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>113</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2909,11 +3365,17 @@
         <v>-131775.0699106194</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>113</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2942,11 +3404,17 @@
         <v>-131770.0699106194</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>113</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2975,11 +3443,17 @@
         <v>-131770.0699106194</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>113</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3008,11 +3482,17 @@
         <v>-131770.0699106194</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>113</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3041,11 +3521,17 @@
         <v>-124169.4961106194</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>113</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3074,11 +3560,17 @@
         <v>-124164.4961106194</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>113</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3107,11 +3599,17 @@
         <v>-135049.7883106194</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>113</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3140,11 +3638,17 @@
         <v>-198278.8439106194</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>113</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3173,11 +3677,17 @@
         <v>-126692.4222106194</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>113</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3206,11 +3716,17 @@
         <v>-126692.4222106194</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>113</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3239,11 +3755,17 @@
         <v>-201014.1369106194</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>113</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3272,11 +3794,17 @@
         <v>-201014.1369106194</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>113</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3305,11 +3833,17 @@
         <v>-201009.1369106194</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>113</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3338,11 +3872,17 @@
         <v>-201014.1369106194</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>113</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3371,11 +3911,17 @@
         <v>-211848.9123106195</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>113</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3407,8 +3953,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>113</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3440,8 +3992,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>113</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3473,8 +4031,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>113</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3506,8 +4070,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>113</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3539,8 +4109,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>113</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3572,8 +4148,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>113</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3605,8 +4187,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>113</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3638,8 +4226,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>113</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3671,8 +4265,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>113</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3704,8 +4304,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>113</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3737,8 +4343,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>113</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3770,8 +4382,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>113</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3803,8 +4421,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>113</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3836,8 +4460,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>113</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3869,8 +4499,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>113</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3902,8 +4538,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>113</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3935,8 +4577,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>113</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3968,8 +4616,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>113</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4001,8 +4655,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>113</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4034,8 +4694,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>113</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4067,8 +4733,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>113</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4097,11 +4769,17 @@
         <v>-231020.1917106195</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>113</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4133,8 +4811,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>113</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4166,8 +4850,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>113</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4199,8 +4889,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>113</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4232,8 +4928,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>113</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4265,8 +4967,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>113</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4298,8 +5006,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>113</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4331,8 +5045,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>113</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4364,8 +5084,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>113</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4397,8 +5123,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>113</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4430,8 +5162,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>113</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4463,8 +5201,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>113</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4496,8 +5240,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>113</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4529,8 +5279,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>113</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4562,8 +5318,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>113</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4595,8 +5357,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>113</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4628,8 +5396,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>113</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4661,8 +5435,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>113</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4694,8 +5474,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>113</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4727,8 +5513,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>113</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4760,8 +5552,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>113</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4793,8 +5591,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>113</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4826,8 +5630,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>113</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4859,8 +5669,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>113</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4892,8 +5708,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>113</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4925,8 +5747,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>113</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4958,8 +5786,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>113</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4991,8 +5825,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>113</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5024,8 +5864,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>113</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5057,8 +5903,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>113</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5090,8 +5942,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>113</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5123,8 +5981,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>113</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5156,8 +6020,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>113</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5189,8 +6059,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>113</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5219,11 +6095,19 @@
         <v>-334989.6595106195</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>115</v>
+      </c>
+      <c r="J146" t="n">
+        <v>113</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5252,11 +6136,19 @@
         <v>-331758.4696106195</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>115</v>
+      </c>
+      <c r="J147" t="n">
+        <v>113</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5288,8 +6180,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>113</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5318,11 +6216,19 @@
         <v>-331763.4696106195</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>115</v>
+      </c>
+      <c r="J149" t="n">
+        <v>113</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5354,8 +6260,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>113</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5387,8 +6299,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>113</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5420,8 +6338,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>113</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5450,11 +6374,19 @@
         <v>-334994.303679585</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>115</v>
+      </c>
+      <c r="J153" t="n">
+        <v>113</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5483,11 +6415,19 @@
         <v>-334994.303679585</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>117</v>
+      </c>
+      <c r="J154" t="n">
+        <v>113</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5516,11 +6456,19 @@
         <v>-326975.677579585</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>117</v>
+      </c>
+      <c r="J155" t="n">
+        <v>113</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5549,11 +6497,19 @@
         <v>-326975.677579585</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>118</v>
+      </c>
+      <c r="J156" t="n">
+        <v>113</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5585,8 +6541,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>113</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5618,8 +6580,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>113</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5648,11 +6616,19 @@
         <v>-323538.253879585</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>118</v>
+      </c>
+      <c r="J159" t="n">
+        <v>113</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5684,8 +6660,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>113</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5714,11 +6696,19 @@
         <v>-323538.253879585</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>118</v>
+      </c>
+      <c r="J161" t="n">
+        <v>113</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5750,8 +6740,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>113</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5780,11 +6776,19 @@
         <v>-323538.253879585</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>118</v>
+      </c>
+      <c r="J163" t="n">
+        <v>113</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5816,8 +6820,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>113</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5849,8 +6859,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>113</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5882,8 +6898,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>113</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5912,11 +6934,17 @@
         <v>-165317.598279585</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>113</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5945,11 +6973,17 @@
         <v>-173335.992279585</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>113</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5978,11 +7012,17 @@
         <v>-172933.552079585</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>113</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6011,11 +7051,17 @@
         <v>-127788.489879585</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>113</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6044,11 +7090,17 @@
         <v>-137794.162679585</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>113</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6077,11 +7129,17 @@
         <v>-139354.162579585</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>113</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6110,11 +7168,17 @@
         <v>-135992.656079585</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>113</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6143,11 +7207,17 @@
         <v>-140944.391279585</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>113</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6176,11 +7246,17 @@
         <v>-83025.31937958498</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>113</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6209,11 +7285,17 @@
         <v>-6554.340479584978</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>113</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6245,12 +7327,20 @@
         <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>113</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>1.092345132743363</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6275,7 +7365,7 @@
         <v>-81500.79897958497</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6308,7 +7398,7 @@
         <v>-66985.35047958497</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6341,7 +7431,7 @@
         <v>-87999.85687958497</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6374,7 +7464,7 @@
         <v>-87999.85687958497</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6407,7 +7497,7 @@
         <v>-87999.85687958497</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6440,7 +7530,7 @@
         <v>-94249.70137958498</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6473,7 +7563,7 @@
         <v>-77937.05657958498</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6506,7 +7596,7 @@
         <v>-28141.21997958498</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6539,7 +7629,7 @@
         <v>-75336.47377958498</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6572,7 +7662,7 @@
         <v>-51341.70097958498</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6605,7 +7695,7 @@
         <v>-49700.12617958498</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6638,7 +7728,7 @@
         <v>-49710.12617958498</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6671,7 +7761,7 @@
         <v>-75463.62047958498</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6803,7 +7893,7 @@
         <v>-51183.15497958498</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6836,7 +7926,7 @@
         <v>-61091.66807958498</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6869,7 +7959,7 @@
         <v>-61091.66807958498</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6902,7 +7992,7 @@
         <v>-55943.24437958498</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6935,7 +8025,7 @@
         <v>-54381.43197958498</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6968,7 +8058,7 @@
         <v>-54381.43197958498</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7133,7 +8223,7 @@
         <v>-17477.67887958498</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7166,7 +8256,7 @@
         <v>-17477.67887958498</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7232,7 +8322,7 @@
         <v>-13877.29327958498</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7265,7 +8355,7 @@
         <v>-10073.96677958498</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7298,7 +8388,7 @@
         <v>3163.135220415019</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7331,7 +8421,7 @@
         <v>3163.135220415019</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7364,7 +8454,7 @@
         <v>3163.135220415019</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7397,7 +8487,7 @@
         <v>-2869.136379584981</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7430,7 +8520,7 @@
         <v>-2869.136379584981</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7463,7 +8553,7 @@
         <v>-2869.136379584981</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7496,7 +8586,7 @@
         <v>-2864.136379584981</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7529,7 +8619,7 @@
         <v>-2864.136379584981</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7562,7 +8652,7 @@
         <v>-23133.07267958498</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7595,7 +8685,7 @@
         <v>-22172.79637958498</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7628,7 +8718,7 @@
         <v>-22172.79637958498</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7661,7 +8751,7 @@
         <v>-11403.83187958498</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7694,7 +8784,7 @@
         <v>-77380.00447958498</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7727,7 +8817,7 @@
         <v>-64407.69077958498</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8090,7 +9180,7 @@
         <v>-59911.24095700434</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8123,7 +9213,7 @@
         <v>-38692.19155700433</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8156,7 +9246,7 @@
         <v>4893.375042995664</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8189,7 +9279,7 @@
         <v>-8694.012957004337</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8222,7 +9312,7 @@
         <v>-8694.012957004337</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8255,7 +9345,7 @@
         <v>-8694.012957004337</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8288,7 +9378,7 @@
         <v>-8832.559457004338</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8321,7 +9411,7 @@
         <v>-24179.67805700434</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8354,7 +9444,7 @@
         <v>-23891.67805700434</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8387,7 +9477,7 @@
         <v>-24122.19155700434</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8420,7 +9510,7 @@
         <v>-24122.19155700434</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8453,7 +9543,7 @@
         <v>-24034.19155700434</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8486,7 +9576,7 @@
         <v>-53293.49985700434</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8519,7 +9609,7 @@
         <v>-48166.31575700434</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8552,7 +9642,7 @@
         <v>-48166.31575700434</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8585,7 +9675,7 @@
         <v>-68396.64085700434</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8618,7 +9708,7 @@
         <v>-68391.64085700434</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8651,7 +9741,7 @@
         <v>-73679.89985700435</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8684,7 +9774,7 @@
         <v>-78349.33415700434</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8717,7 +9807,7 @@
         <v>-78344.33415700434</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8750,7 +9840,7 @@
         <v>-78344.33415700434</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8783,7 +9873,7 @@
         <v>-78544.10175700435</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8816,7 +9906,7 @@
         <v>-78544.10175700435</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8849,7 +9939,7 @@
         <v>-63434.91095700435</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8882,7 +9972,7 @@
         <v>-63439.09285700435</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8915,7 +10005,7 @@
         <v>-63434.09285700435</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8948,7 +10038,7 @@
         <v>-103243.7482570044</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8981,7 +10071,7 @@
         <v>-97275.69225700437</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9047,7 +10137,7 @@
         <v>-123425.0752570044</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -11489,7 +12579,7 @@
         <v>-340349.2762570044</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11885,7 +12975,7 @@
         <v>-338655.4802570044</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11918,7 +13008,7 @@
         <v>-338648.7892570044</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11951,7 +13041,7 @@
         <v>-338648.7892570044</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11984,7 +13074,7 @@
         <v>-338707.7892570044</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12149,7 +13239,7 @@
         <v>-339668.5699570044</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12182,7 +13272,7 @@
         <v>-340144.6072570044</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12215,7 +13305,7 @@
         <v>-338334.7022570044</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12248,7 +13338,7 @@
         <v>-350939.7442570044</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12314,7 +13404,7 @@
         <v>-350944.7442570044</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12347,7 +13437,7 @@
         <v>-350944.7442570044</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12380,7 +13470,7 @@
         <v>-370081.5755570044</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12413,7 +13503,7 @@
         <v>-347508.2280570045</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12446,7 +13536,7 @@
         <v>-347508.2280570045</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12479,7 +13569,7 @@
         <v>-347804.8382570044</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12512,7 +13602,7 @@
         <v>-347804.8382570044</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12697,10 +13787,14 @@
         <v>-347804.8382570044</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>118</v>
+      </c>
+      <c r="J372" t="n">
+        <v>118</v>
+      </c>
       <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
@@ -12738,7 +13832,11 @@
       <c r="J373" t="n">
         <v>118</v>
       </c>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12814,13 +13912,9 @@
         <v>117</v>
       </c>
       <c r="J375" t="n">
-        <v>118</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12857,7 +13951,11 @@
       <c r="J376" t="n">
         <v>117</v>
       </c>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12930,14 +14028,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>117</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12966,11 +14058,17 @@
         <v>-330230.4661570045</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>120</v>
+      </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13003,7 +14101,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13036,7 +14138,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13069,7 +14175,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13102,7 +14212,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13135,7 +14249,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13168,7 +14286,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13201,7 +14323,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13234,7 +14360,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13267,7 +14397,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13300,7 +14434,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13333,7 +14471,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13366,7 +14508,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13399,7 +14545,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13432,7 +14582,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13465,7 +14619,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13498,7 +14656,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13531,7 +14693,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13564,7 +14730,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13597,7 +14767,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13630,7 +14804,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13663,7 +14841,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13696,7 +14878,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13729,7 +14915,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13763,10 +14953,12 @@
       <c r="I403" t="n">
         <v>118</v>
       </c>
-      <c r="J403" t="n">
-        <v>118</v>
-      </c>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13798,12 +14990,10 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>118</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L404" t="n">
@@ -13837,12 +15027,10 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>118</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L405" t="n">
@@ -13877,7 +15065,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13910,7 +15102,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13943,7 +15139,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13976,7 +15176,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14009,7 +15213,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14042,7 +15250,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14075,7 +15287,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14104,11 +15320,15 @@
         <v>-292578.5099570043</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14137,11 +15357,15 @@
         <v>-292578.5099570043</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14170,11 +15394,15 @@
         <v>-292578.5099570043</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14207,7 +15435,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14240,7 +15472,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14273,7 +15509,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14306,7 +15546,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14339,7 +15583,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14372,7 +15620,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14405,7 +15657,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14438,7 +15694,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14471,7 +15731,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14504,7 +15768,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14537,7 +15805,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14570,7 +15842,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14603,7 +15879,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14636,7 +15916,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14669,7 +15953,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14702,7 +15990,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14735,7 +16027,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14768,7 +16064,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14801,7 +16101,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14834,7 +16138,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14867,7 +16175,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14900,7 +16212,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14933,7 +16249,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14966,7 +16286,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14999,7 +16323,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15032,7 +16360,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15065,7 +16397,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15098,7 +16434,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15131,7 +16471,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15164,7 +16508,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15197,7 +16545,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15230,7 +16582,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15267,7 +16623,7 @@
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L448" t="n">
@@ -15374,11 +16730,9 @@
         <v>-534666.4899570043</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -15563,9 +16917,11 @@
         <v>-594561.0204570043</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>118</v>
+      </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
@@ -15600,9 +16956,11 @@
         <v>-590054.2429570043</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>119</v>
+      </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
@@ -15637,9 +16995,11 @@
         <v>-590054.2429570043</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>120</v>
+      </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
@@ -15674,9 +17034,11 @@
         <v>-598525.0998570044</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>120</v>
+      </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
@@ -15711,9 +17073,11 @@
         <v>-597684.8906570043</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>118</v>
+      </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
@@ -15748,9 +17112,11 @@
         <v>-597684.8906570043</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>120</v>
+      </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
@@ -15785,9 +17151,11 @@
         <v>-897684.8906570043</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>120</v>
+      </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
@@ -15822,9 +17190,11 @@
         <v>-297674.8906570043</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>119</v>
+      </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
@@ -15896,9 +17266,11 @@
         <v>-511758.3868236711</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>120</v>
+      </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
@@ -15933,9 +17305,11 @@
         <v>-511758.3868236711</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>119</v>
+      </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
@@ -16007,9 +17381,11 @@
         <v>-511761.3868236711</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>117</v>
+      </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
